--- a/biology/Botanique/Paradisea/Paradisea.xlsx
+++ b/biology/Botanique/Paradisea/Paradisea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paradisea est un genre de plantes herbacées de la famille des Asparagacées selon la classification phylogénétique APG II (2003)[3] (de la famille des Xanthorrhoéacées dans la classification phylogénétique APG III (2009)[4]) et de celle des Liliacées dans la classification classique. Certaines des espèces du genre Paradisea étaient précédemment classées au sein du genre des Phalangères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paradisea est un genre de plantes herbacées de la famille des Asparagacées selon la classification phylogénétique APG II (2003) (de la famille des Xanthorrhoéacées dans la classification phylogénétique APG III (2009)) et de celle des Liliacées dans la classification classique. Certaines des espèces du genre Paradisea étaient précédemment classées au sein du genre des Phalangères.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (8 février 2019)[2], Catalogue of Life                                   (8 février 2019)[5], GRIN            (8 février 2019)[6] et The Plant List            (8 février 2019)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (8 février 2019), Catalogue of Life                                   (8 février 2019), GRIN            (8 février 2019) et The Plant List            (8 février 2019) :
 Paradisea liliastrum (L.) Bertol.
 Paradisea lusitanica (Cout.) Samp
-Selon Tropicos                                           (8 février 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 février 2019) (Attention liste brute contenant possiblement des synonymes) :
 Paradisea bulbulifera Lingelsh.
 Paradisea bulbuliferum Lingelsh. ex H. Limpr.
 Paradisea liliastrum (L.) Bertol.
